--- a/medicine/Psychotrope/Persan_(cépage)/Persan_(cépage).xlsx
+++ b/medicine/Psychotrope/Persan_(cépage)/Persan_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Persan_(c%C3%A9page)</t>
+          <t>Persan_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le persan N[N 1] est un cépage noir originaire de la vallée de la Maurienne. Il a une forte ressemblance avec l'étraire de l'Aduï N, autre cépage noir originaire de Saint-Ismier.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Persan_(c%C3%A9page)</t>
+          <t>Persan_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a d'abord été cultivé en Savoie, à Saint-Jean-de-Maurienne puis dans la vallée de l'Arc et jusqu'aux limites de la Drôme.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Persan_(c%C3%A9page)</t>
+          <t>Persan_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est aussi dénommé : princens, prinssens, prinssan, pressan, serine, siranne pointue, sirazène pointue, bécuette, petit bequet, pousse de chèvre et posse de chèvre.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Persan_(c%C3%A9page)</t>
+          <t>Persan_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Implantations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On assiste depuis une dizaine d'années, au retour du persan N dans la combe de Savoie, en particulier sous l'impulsion des frères Grisard. Il est aussi à noter, depuis 2008, le grand retour du persan en Maurienne, son berceau d'origine, grâce au travail acharné de l'association d'insertion Solid'Art[1].
-Le persan N fait par ailleurs partie, avec l'Altesse B et la Mondeuse N, des cépages sauvegardés au sein de la vigne conservatoire de Montmélian, à l'ouest de la combe de Savoie, installée au début des années 2010[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On assiste depuis une dizaine d'années, au retour du persan N dans la combe de Savoie, en particulier sous l'impulsion des frères Grisard. Il est aussi à noter, depuis 2008, le grand retour du persan en Maurienne, son berceau d'origine, grâce au travail acharné de l'association d'insertion Solid'Art.
+Le persan N fait par ailleurs partie, avec l'Altesse B et la Mondeuse N, des cépages sauvegardés au sein de la vigne conservatoire de Montmélian, à l'ouest de la combe de Savoie, installée au début des années 2010.
 On le trouve aussi en Isère où il est utilisé pour produire les vins d'appellation Coteaux-du-grésivaudan et Isère.
 </t>
         </is>
